--- a/AfDD_2021_Annex_Table_Tab23.xlsx
+++ b/AfDD_2021_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1128,6 +1128,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6888,17 +6889,17 @@
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B109" s="60" t="s">
+      <c r="B109" s="61" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B110" s="60" t="s">
+      <c r="B110" s="61" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B111" s="60" t="s">
+      <c r="B111" s="61" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6906,10 +6907,10 @@
   <hyperlinks>
     <hyperlink ref="B107" r:id="rId1"/>
     <hyperlink ref="B108" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B109" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
-    <hyperlink ref="B111" r:id="rId5"/>
-    <hyperlink ref="B105" r:id="rId6"/>
+    <hyperlink ref="B105" r:id="rId3"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2021_Annex_Table_Tab23.xlsx
+++ b/AfDD_2021_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t/>
   </si>
   <si>
     <t>Southern Africa</t>

--- a/AfDD_2021_Annex_Table_Tab23.xlsx
+++ b/AfDD_2021_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab23.xlsx
+++ b/AfDD_2021_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab23.xlsx
+++ b/AfDD_2021_Annex_Table_Tab23.xlsx
@@ -505,7 +505,7 @@
     <t>ROW, Upper middle income countries</t>
   </si>
   <si>
-    <t>High income countries (no LAC)</t>
+    <t>High income countries</t>
   </si>
   <si>
     <t>Africa, Least Developed Countries</t>

--- a/AfDD_2021_Annex_Table_Tab23.xlsx
+++ b/AfDD_2021_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab23.xlsx
+++ b/AfDD_2021_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab23.xlsx
+++ b/AfDD_2021_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -2111,7 +2111,7 @@
         <v>775.39594499999998</v>
       </c>
       <c r="N13" s="27">
-        <v>23859</v>
+        <v>2525.2400042378199</v>
       </c>
       <c r="O13" s="27">
         <v>861034.18</v>
@@ -2671,7 +2671,7 @@
         <v>466.269138</v>
       </c>
       <c r="N23" s="27">
-        <v>13871</v>
+        <v>2373.8133079182198</v>
       </c>
       <c r="O23" s="27">
         <v>76263.47</v>
@@ -3511,7 +3511,7 @@
         <v>2533.0196059999998</v>
       </c>
       <c r="N38" s="27">
-        <v>21326</v>
+        <v>2258.1855425952399</v>
       </c>
       <c r="O38" s="27">
         <v>841204.69</v>
@@ -3903,7 +3903,7 @@
         <v>351.28337599999998</v>
       </c>
       <c r="N45" s="27">
-        <v>16359</v>
+        <v>3336.2071632669099</v>
       </c>
       <c r="O45" s="27">
         <v>1718100</v>
@@ -4799,7 +4799,7 @@
         <v>2324.9731160000001</v>
       </c>
       <c r="N61" s="27">
-        <v>38933</v>
+        <v>2590.5500867576102</v>
       </c>
       <c r="O61" s="27">
         <v>802291.65</v>
@@ -4855,7 +4855,7 @@
         <v>6450.9411810000001</v>
       </c>
       <c r="N62" s="32">
-        <v>114348</v>
+        <v>2597.67579128335</v>
       </c>
       <c r="O62" s="32">
         <v>4298893.99</v>
@@ -4911,7 +4911,7 @@
         <v>69414.082563000004</v>
       </c>
       <c r="N63" s="32">
-        <v>362526</v>
+        <v>2973.5091189032701</v>
       </c>
       <c r="O63" s="32">
         <v>104193240.12</v>
@@ -4967,7 +4967,7 @@
         <v>17115.066247999999</v>
       </c>
       <c r="N64" s="37">
-        <v>91312</v>
+        <v>3047.2970802363898</v>
       </c>
       <c r="O64" s="37">
         <v>10160346.869999999</v>
@@ -5023,7 +5023,7 @@
         <v>36715.806629999999</v>
       </c>
       <c r="N65" s="41">
-        <v>73447</v>
+        <v>2804.1083144570098</v>
       </c>
       <c r="O65" s="41">
         <v>60136550.57</v>
@@ -5079,7 +5079,7 @@
         <v>75865.023744000006</v>
       </c>
       <c r="N66" s="37">
-        <v>476874</v>
+        <v>2916.5117556755899</v>
       </c>
       <c r="O66" s="37">
         <v>108492134.11</v>
@@ -5135,7 +5135,7 @@
         <v>2756.077667</v>
       </c>
       <c r="N67" s="44">
-        <v>34956</v>
+        <v>2511.50676411314</v>
       </c>
       <c r="O67" s="44">
         <v>2423044.2400000002</v>
@@ -5191,7 +5191,7 @@
         <v>2689.9299980000001</v>
       </c>
       <c r="N68" s="41">
-        <v>56257</v>
+        <v>2755.4966645743498</v>
       </c>
       <c r="O68" s="41">
         <v>2617994.59</v>
@@ -5247,7 +5247,7 @@
         <v>1909.5307439999999</v>
       </c>
       <c r="N69" s="41">
-        <v>8879</v>
+        <v>2230.1906916993898</v>
       </c>
       <c r="O69" s="41">
         <v>230698.35</v>
@@ -5303,7 +5303,7 @@
         <v>485.49350500000003</v>
       </c>
       <c r="N70" s="41">
-        <v>18356</v>
+        <v>2320.2769207746501</v>
       </c>
       <c r="O70" s="41">
         <v>102540.01</v>
@@ -5359,7 +5359,7 @@
         <v>2324.9731160000001</v>
       </c>
       <c r="N71" s="41">
-        <v>38933</v>
+        <v>2590.5500867576102</v>
       </c>
       <c r="O71" s="41">
         <v>802291.65</v>
@@ -5415,7 +5415,7 @@
         <v>2428.6994070000001</v>
       </c>
       <c r="N72" s="41">
-        <v>11685</v>
+        <v>2262.22687253816</v>
       </c>
       <c r="O72" s="41">
         <v>659003.76</v>
@@ -5471,7 +5471,7 @@
         <v>867.26280499999996</v>
       </c>
       <c r="N73" s="41">
-        <v>31285</v>
+        <v>2437.6284547318101</v>
       </c>
       <c r="O73" s="41">
         <v>1048571.57</v>
@@ -5527,7 +5527,7 @@
         <v>182.87835899999999</v>
       </c>
       <c r="N74" s="37">
-        <v>13038</v>
+        <v>3352.0306002006701</v>
       </c>
       <c r="O74" s="37">
         <v>405200</v>
@@ -5583,7 +5583,7 @@
         <v>15882.520490999999</v>
       </c>
       <c r="N75" s="44">
-        <v>22460</v>
+        <v>2832.1198234047301</v>
       </c>
       <c r="O75" s="44">
         <v>7757224.6399999997</v>
@@ -5639,7 +5639,7 @@
         <v>14887.367204</v>
       </c>
       <c r="N76" s="41">
-        <v>34019</v>
+        <v>3051.80122409674</v>
       </c>
       <c r="O76" s="41">
         <v>8169349.0099999998</v>
@@ -5695,7 +5695,7 @@
         <v>5514.3229270000002</v>
       </c>
       <c r="N77" s="37">
-        <v>89850</v>
+        <v>3450.4861828215398</v>
       </c>
       <c r="O77" s="37">
         <v>9998289.8200000003</v>
@@ -5751,7 +5751,7 @@
         <v>456.59437400000002</v>
       </c>
       <c r="N78" s="44">
-        <v>27782</v>
+        <v>2565.1844073995699</v>
       </c>
       <c r="O78" s="44">
         <v>794905.25</v>
@@ -5807,7 +5807,7 @@
         <v>3100.7404510000001</v>
       </c>
       <c r="N79" s="41">
-        <v>57155</v>
+        <v>3002.9781012830599</v>
       </c>
       <c r="O79" s="41">
         <v>4275206.54</v>
@@ -5863,7 +5863,7 @@
         <v>5994.3468069999999</v>
       </c>
       <c r="N80" s="41">
-        <v>86566</v>
+        <v>2612.2435405891802</v>
       </c>
       <c r="O80" s="41">
         <v>3503988.74</v>
@@ -5919,7 +5919,7 @@
         <v>66313.342111999998</v>
       </c>
       <c r="N81" s="37">
-        <v>305371</v>
+        <v>2971.0449106783599</v>
       </c>
       <c r="O81" s="37">
         <v>99918033.579999998</v>
@@ -5975,7 +5975,7 @@
         <v>1685.514332</v>
       </c>
       <c r="N82" s="44">
-        <v>42621</v>
+        <v>2357.5412526099699</v>
       </c>
       <c r="O82" s="44">
         <v>951684.2</v>
@@ -6031,7 +6031,7 @@
         <v>54.039020000000001</v>
       </c>
       <c r="N83" s="41">
-        <v>10363</v>
+        <v>2048.36264164764</v>
       </c>
       <c r="O83" s="41">
         <v>63581.279999999999</v>
@@ -6087,7 +6087,7 @@
         <v>4094.982579</v>
       </c>
       <c r="N84" s="41">
-        <v>58192</v>
+        <v>2704.5365449258402</v>
       </c>
       <c r="O84" s="41">
         <v>2807328.94</v>
@@ -6143,7 +6143,7 @@
         <v>26921.347960999999</v>
       </c>
       <c r="N85" s="41">
-        <v>60796</v>
+        <v>2560.2928867453902</v>
       </c>
       <c r="O85" s="41">
         <v>27740979.050000001</v>
@@ -6199,7 +6199,7 @@
         <v>668.00515199999995</v>
       </c>
       <c r="N86" s="41">
-        <v>10408</v>
+        <v>2938.7327190576202</v>
       </c>
       <c r="O86" s="41">
         <v>532425.5</v>
@@ -6255,7 +6255,7 @@
         <v>29383.785455000001</v>
       </c>
       <c r="N87" s="41">
-        <v>132324</v>
+        <v>3136.9501503757401</v>
       </c>
       <c r="O87" s="41">
         <v>47934094</v>
@@ -6311,7 +6311,7 @@
         <v>13057.349244999999</v>
       </c>
       <c r="N88" s="37">
-        <v>162170</v>
+        <v>3430.63190255068</v>
       </c>
       <c r="O88" s="37">
         <v>28462041.140000001</v>
@@ -6367,7 +6367,7 @@
         <v>1700.935925</v>
       </c>
       <c r="N89" s="44">
-        <v>64890</v>
+        <v>2365.7601031254299</v>
       </c>
       <c r="O89" s="44">
         <v>1348429.74</v>
@@ -6423,7 +6423,7 @@
         <v>1251.2751479999999</v>
       </c>
       <c r="N90" s="41">
-        <v>30139</v>
+        <v>2515.0144422708399</v>
       </c>
       <c r="O90" s="41">
         <v>1909978.67</v>
@@ -6479,7 +6479,7 @@
         <v>2.6896719999999998</v>
       </c>
       <c r="N91" s="41">
-        <v>10313</v>
+        <v>2586.6169510907398</v>
       </c>
       <c r="O91" s="41">
         <v>7455.35</v>
@@ -6535,7 +6535,7 @@
         <v>98.416044999999997</v>
       </c>
       <c r="N92" s="41">
-        <v>61760</v>
+        <v>2782.3243861455298</v>
       </c>
       <c r="O92" s="41">
         <v>230222.27</v>
@@ -6591,7 +6591,7 @@
         <v>1473.3560440000001</v>
       </c>
       <c r="N93" s="41">
-        <v>32596</v>
+        <v>2343.3037766356401</v>
       </c>
       <c r="O93" s="41">
         <v>937536.18</v>
@@ -6647,7 +6647,7 @@
         <v>2512.9206869999998</v>
       </c>
       <c r="N94" s="37">
-        <v>40945</v>
+        <v>2683.4725649816901</v>
       </c>
       <c r="O94" s="37">
         <v>1514361.74</v>
@@ -6703,7 +6703,7 @@
         <v>5275.337724</v>
       </c>
       <c r="N95" s="44">
-        <v>60510</v>
+        <v>2383.6527428618601</v>
       </c>
       <c r="O95" s="44">
         <v>1651027.01</v>
@@ -6759,7 +6759,7 @@
         <v>5211.203861</v>
       </c>
       <c r="N96" s="41">
-        <v>32785</v>
+        <v>2536.0402697965901</v>
       </c>
       <c r="O96" s="41">
         <v>6373112.3899999997</v>
@@ -6815,7 +6815,7 @@
         <v>86.349022000000005</v>
       </c>
       <c r="N97" s="48">
-        <v>17323</v>
+        <v>2235.95057650024</v>
       </c>
       <c r="O97" s="48">
         <v>423189.97</v>
